--- a/VIDEO EQ BOMv2 USA.xlsx
+++ b/VIDEO EQ BOMv2 USA.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr date1904="1" showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robdj\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BCF683-D867-458E-BE79-ABECCA574EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="0" windowWidth="26100" windowHeight="16660" tabRatio="500"/>
+    <workbookView xWindow="1360" yWindow="1360" windowWidth="33570" windowHeight="12280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="video equations8 kickstart.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="119">
   <si>
     <t>PART</t>
   </si>
@@ -373,12 +379,15 @@
   </si>
   <si>
     <t>http://www.newark.com/multicomp/mcf-0-25w-100r/carbon-film-resistor-100-ohm-250mw/dp/38K0326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">center - 9v power suply </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -838,14 +847,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" customWidth="1"/>
@@ -854,17 +863,17 @@
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="28">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A1" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1">
+    <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -879,18 +888,21 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:11" s="5" customFormat="1">
+    <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="C4" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="D4" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="7" customFormat="1">
+    <row r="5" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -904,7 +916,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="5" customFormat="1">
+    <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -915,7 +927,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="7" customFormat="1">
+    <row r="7" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>69</v>
       </c>
@@ -926,7 +938,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="5" customFormat="1">
+    <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -937,7 +949,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="7" customFormat="1">
+    <row r="9" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -948,7 +960,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="5" customFormat="1">
+    <row r="10" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -959,7 +971,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="7" customFormat="1">
+    <row r="11" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
@@ -970,7 +982,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="5" customFormat="1">
+    <row r="12" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -984,7 +996,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="7" customFormat="1">
+    <row r="13" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -995,7 +1007,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="7" customFormat="1">
+    <row r="14" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C14" s="7" t="s">
         <v>74</v>
       </c>
@@ -1003,7 +1015,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="5" customFormat="1">
+    <row r="15" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
@@ -1023,7 +1035,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="7" customFormat="1">
+    <row r="16" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>18</v>
       </c>
@@ -1037,7 +1049,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="5" customFormat="1">
+    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
@@ -1048,7 +1060,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="7" customFormat="1">
+    <row r="18" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
@@ -1059,7 +1071,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="5" customFormat="1">
+    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
@@ -1070,7 +1082,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="7" customFormat="1">
+    <row r="20" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
@@ -1081,7 +1093,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="5" customFormat="1">
+    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
@@ -1092,7 +1104,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="7" customFormat="1">
+    <row r="22" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>30</v>
       </c>
@@ -1103,7 +1115,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="5" customFormat="1">
+    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>32</v>
       </c>
@@ -1114,7 +1126,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="7" customFormat="1">
+    <row r="24" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>34</v>
       </c>
@@ -1125,7 +1137,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="5" customFormat="1">
+    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>35</v>
       </c>
@@ -1136,7 +1148,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="7" customFormat="1">
+    <row r="26" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>37</v>
       </c>
@@ -1150,7 +1162,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="5" customFormat="1">
+    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>40</v>
       </c>
@@ -1161,7 +1173,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="7" customFormat="1">
+    <row r="28" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>42</v>
       </c>
@@ -1172,7 +1184,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="5" customFormat="1">
+    <row r="29" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>44</v>
       </c>
@@ -1186,7 +1198,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="7" customFormat="1">
+    <row r="30" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>53</v>
       </c>
@@ -1200,7 +1212,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="5" customFormat="1">
+    <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>54</v>
       </c>
@@ -1214,7 +1226,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="7" customFormat="1">
+    <row r="32" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>55</v>
       </c>
@@ -1228,7 +1240,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="5" customFormat="1">
+    <row r="33" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>59</v>
       </c>
@@ -1242,12 +1254,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="5" customFormat="1">
+    <row r="34" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D34" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="7" customFormat="1">
+    <row r="35" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>62</v>
       </c>
@@ -1261,7 +1273,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="5" customFormat="1">
+    <row r="36" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>63</v>
       </c>
@@ -1275,7 +1287,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="7" customFormat="1">
+    <row r="37" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>79</v>
       </c>
@@ -1283,7 +1295,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="5" customFormat="1">
+    <row r="38" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>80</v>
       </c>
@@ -1292,7 +1304,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="7" customFormat="1">
+    <row r="39" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>81</v>
       </c>
@@ -1303,29 +1315,29 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D12" r:id="rId1"/>
-    <hyperlink ref="D16" r:id="rId2"/>
-    <hyperlink ref="D29" r:id="rId3"/>
-    <hyperlink ref="D33" r:id="rId4"/>
-    <hyperlink ref="D35" r:id="rId5"/>
-    <hyperlink ref="D28" r:id="rId6"/>
-    <hyperlink ref="D4" r:id="rId7"/>
-    <hyperlink ref="D5" r:id="rId8"/>
-    <hyperlink ref="D6" r:id="rId9"/>
-    <hyperlink ref="D7" r:id="rId10"/>
-    <hyperlink ref="D8" r:id="rId11"/>
-    <hyperlink ref="D9" r:id="rId12"/>
-    <hyperlink ref="D11" r:id="rId13"/>
-    <hyperlink ref="D13" r:id="rId14"/>
-    <hyperlink ref="D14" r:id="rId15"/>
-    <hyperlink ref="D24" r:id="rId16"/>
-    <hyperlink ref="D25" r:id="rId17"/>
-    <hyperlink ref="D26" r:id="rId18"/>
-    <hyperlink ref="D27" r:id="rId19"/>
-    <hyperlink ref="D30" r:id="rId20"/>
-    <hyperlink ref="D31" r:id="rId21"/>
-    <hyperlink ref="D32" r:id="rId22"/>
-    <hyperlink ref="D36" r:id="rId23"/>
+    <hyperlink ref="D12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D29" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D33" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D35" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D28" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D4" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D8" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D9" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D11" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D13" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D14" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D25" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D26" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D27" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D30" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D31" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D32" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D36" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
